--- a/Recycling/Met_rec/metrec_Min_target_Min.xlsx
+++ b/Recycling/Met_rec/metrec_Min_target_Min.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -1719,7 +1719,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>55579.9792399112</v>
+        <v>55579.97923991122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1851,7 +1851,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>64307.96100302235</v>
+        <v>64307.96100302236</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2049,7 +2049,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>93395.27619719857</v>
+        <v>93395.27619719859</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2379,7 +2379,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>136136.6974506027</v>
+        <v>136136.6974506026</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>505872.9439998682</v>
+        <v>505872.9439998683</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3501,7 +3501,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1950034.592079029</v>
+        <v>1950034.592079028</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5283,7 +5283,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1953747.730931858</v>
+        <v>1953747.730931857</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6207,7 +6207,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1681427.682419383</v>
+        <v>1681427.682419382</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6339,7 +6339,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1854362.458575675</v>
+        <v>1854362.458575674</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Min_target_Min.xlsx
+++ b/Recycling/Met_rec/metrec_Min_target_Min.xlsx
@@ -1604,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3865.776344799181</v>
+        <v>3865.77634479918</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2464,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>6523.154434374132</v>
+        <v>6523.154434374131</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3600,7 +3600,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>25772.64829825615</v>
+        <v>25772.64829825614</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3644,7 +3644,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>196957.7007886823</v>
+        <v>196957.7007886824</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4140,7 +4140,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>41310.12999484939</v>
+        <v>41310.12999484938</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4212,7 +4212,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>90768.13438003878</v>
+        <v>90768.1343800388</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4256,7 +4256,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>172146.7479405657</v>
+        <v>172146.7479405658</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6588,7 +6588,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>899930.8521633651</v>
+        <v>899930.8521633652</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6660,7 +6660,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2804896.699131121</v>
+        <v>2804896.69913112</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7112,7 +7112,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2654308.529311273</v>
+        <v>2654308.529311274</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7200,7 +7200,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2122410.359204245</v>
+        <v>2122410.359204244</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7272,7 +7272,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>6018563.315440077</v>
+        <v>6018563.315440078</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8700,7 +8700,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>9910722.421186922</v>
+        <v>9910722.421186924</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9240,7 +9240,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>4609513.903822949</v>
+        <v>4609513.90382295</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9852,7 +9852,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>4289730.206350221</v>
+        <v>4289730.20635022</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10172,7 +10172,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5691059.122427169</v>
+        <v>5691059.122427168</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10668,7 +10668,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>4221203.115711846</v>
+        <v>4221203.115711845</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10784,7 +10784,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5629842.858329702</v>
+        <v>5629842.858329701</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12416,7 +12416,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5500647.388033916</v>
+        <v>5500647.388033917</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13116,7 +13116,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>4862710.981927947</v>
+        <v>4862710.981927948</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -13596,7 +13596,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>11204108.7428444</v>
+        <v>11204108.74284441</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -13684,7 +13684,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>31043956.28587446</v>
+        <v>31043956.28587447</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14340,7 +14340,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>5401272.812624715</v>
+        <v>5401272.812624716</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -14660,7 +14660,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7373754.753465354</v>
+        <v>7373754.753465355</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14864,7 +14864,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7152795.422781345</v>
+        <v>7152795.422781346</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14952,7 +14952,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>5219381.241347528</v>
+        <v>5219381.241347529</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -15724,7 +15724,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>39847129.87728519</v>
+        <v>39847129.8772852</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -15884,7 +15884,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7239012.183827535</v>
+        <v>7239012.183827534</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -15972,7 +15972,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>5263258.175829582</v>
+        <v>5263258.175829583</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -16292,7 +16292,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7724503.279645693</v>
+        <v>7724503.279645696</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -17604,7 +17604,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>6432212.58747806</v>
+        <v>6432212.587478061</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -18216,7 +18216,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>6523621.939889944</v>
+        <v>6523621.939889943</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -18988,7 +18988,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>653.8797246285711</v>
+        <v>653.8797246285712</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19440,7 +19440,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>6071146.599851522</v>
+        <v>6071146.599851521</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -20256,7 +20256,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>6574035.458966018</v>
+        <v>6574035.458966019</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -20372,7 +20372,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>9401989.423726527</v>
+        <v>9401989.423726525</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -20416,7 +20416,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>62378488.67963516</v>
+        <v>62378488.67963514</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20780,7 +20780,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>9893974.432637904</v>
+        <v>9893974.432637902</v>
       </c>
     </row>
     <row r="9" spans="1:4">
